--- a/로스트아크/데이터테이블/Skill_Table(창술사데이터완, 다른 클래스 데이터 추가).xlsx
+++ b/로스트아크/데이터테이블/Skill_Table(창술사데이터완, 다른 클래스 데이터 추가).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B57C825-E023-4D05-8A93-6CCEC96413F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C002D35A-89CE-4B21-8402-F4D21F49752D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="14124" windowHeight="12336" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -1614,7 +1614,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="207">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3784,6 +3784,274 @@
   </si>
   <si>
     <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_00</t>
+  </si>
+  <si>
+    <t>BREAKER_01</t>
+  </si>
+  <si>
+    <t>BREAKER_02</t>
+  </si>
+  <si>
+    <t>BREAKER_03</t>
+  </si>
+  <si>
+    <t>BREAKER_04</t>
+  </si>
+  <si>
+    <t>권왕의 진격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_05</t>
+  </si>
+  <si>
+    <t>연쇄 돌풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_06</t>
+  </si>
+  <si>
+    <t>비뢰격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_07</t>
+  </si>
+  <si>
+    <t>유성낙하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_08</t>
+  </si>
+  <si>
+    <t>즉결타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_09</t>
+  </si>
+  <si>
+    <t>연속전격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_10</t>
+  </si>
+  <si>
+    <t>백렬권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_11</t>
+  </si>
+  <si>
+    <t>금강난격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_12</t>
+  </si>
+  <si>
+    <t>징벌의 파도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_13</t>
+  </si>
+  <si>
+    <t>척결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_14</t>
+  </si>
+  <si>
+    <t>휩쓸기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_15</t>
+  </si>
+  <si>
+    <t>비상격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_16</t>
+  </si>
+  <si>
+    <t>대지파쇄권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_17</t>
+  </si>
+  <si>
+    <t>진 파공권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_18</t>
+  </si>
+  <si>
+    <t>청월난무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_19</t>
+  </si>
+  <si>
+    <t>연의붕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_20</t>
+  </si>
+  <si>
+    <t>천기심권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_21</t>
+  </si>
+  <si>
+    <t>파천섬광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_22</t>
+  </si>
+  <si>
+    <t>천문격파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_23</t>
+  </si>
+  <si>
+    <t>환무월명권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_26</t>
+  </si>
+  <si>
+    <t>권왕십이식 : 낙화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_27</t>
+  </si>
+  <si>
+    <t>BREAKER_28</t>
+  </si>
+  <si>
+    <t>호신투기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_29</t>
+  </si>
+  <si>
+    <t>천왕지무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_30</t>
+  </si>
+  <si>
+    <t>성운멸쇄권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_31</t>
+  </si>
+  <si>
+    <t>천견지종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_32</t>
+  </si>
+  <si>
+    <t>일월신권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_33</t>
+  </si>
+  <si>
+    <t>권왕십이식 : 풍랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브레이커 기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수라 상태 이동기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수라 상태 기본공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연쇄 돌풍 [휘몰아치기]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속전격 [연속 동작]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백렬권 [일순 연격]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금강난격 [확정된 연격]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청월난무 [지면 강타]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연의붕권 [난타]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파천섬광 [완벽한 일격]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권왕태세 진입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수라 상태 진입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4035,7 +4303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -4289,13 +4557,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4431,9 +4725,6 @@
     <xf numFmtId="0" fontId="22" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4445,6 +4736,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4768,7 +5092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:Q19"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -4788,11 +5112,11 @@
   <sheetData>
     <row r="1" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C3" s="10" t="s">
@@ -5067,16 +5391,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AA6C23-4463-4E33-A372-1AB2136309A4}">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N96" sqref="A1:N96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.69921875" style="46" customWidth="1"/>
+    <col min="1" max="1" width="17.69921875" style="45" customWidth="1"/>
     <col min="2" max="2" width="5.3984375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.3984375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" style="5" bestFit="1" customWidth="1"/>
@@ -7205,7 +7529,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="44" t="s">
         <v>115</v>
       </c>
@@ -7249,7 +7573,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="44" t="s">
         <v>116</v>
       </c>
@@ -7293,7 +7617,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="44" t="s">
         <v>117</v>
       </c>
@@ -7337,7 +7661,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="44" t="s">
         <v>118</v>
       </c>
@@ -7381,7 +7705,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="44" t="s">
         <v>103</v>
       </c>
@@ -7425,8 +7749,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="44" t="s">
+    <row r="54" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="52" t="s">
         <v>104</v>
       </c>
       <c r="B54" s="5">
@@ -7469,8 +7793,1837 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="45"/>
+    <row r="55" spans="1:17" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="B55" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="55"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="57"/>
+      <c r="P55" s="57"/>
+      <c r="Q55" s="57"/>
+    </row>
+    <row r="56" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="B56" s="5">
+        <v>313000</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
+        <v>2</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L56" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N56" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="B57" s="5">
+        <v>313010</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1</v>
+      </c>
+      <c r="E57" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
+        <v>1</v>
+      </c>
+      <c r="H57" s="5">
+        <v>4</v>
+      </c>
+      <c r="I57" s="5">
+        <v>0</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="5">
+        <v>6</v>
+      </c>
+      <c r="L57" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="B58" s="5">
+        <v>313020</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5">
+        <v>1</v>
+      </c>
+      <c r="H58" s="5">
+        <v>4</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="5">
+        <v>6</v>
+      </c>
+      <c r="L58" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="5">
+        <v>313030</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" s="5">
+        <v>2</v>
+      </c>
+      <c r="E59" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5">
+        <v>1</v>
+      </c>
+      <c r="H59" s="5">
+        <v>4</v>
+      </c>
+      <c r="I59" s="5">
+        <v>0</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="5">
+        <v>30</v>
+      </c>
+      <c r="L59" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="5">
+        <v>313040</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="5">
+        <v>11</v>
+      </c>
+      <c r="E60" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5">
+        <v>1</v>
+      </c>
+      <c r="H60" s="5">
+        <v>1</v>
+      </c>
+      <c r="I60" s="5">
+        <v>11</v>
+      </c>
+      <c r="J60" s="5">
+        <v>10</v>
+      </c>
+      <c r="K60" s="5">
+        <v>8</v>
+      </c>
+      <c r="L60" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N60" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="5">
+        <v>313050</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="5">
+        <v>11</v>
+      </c>
+      <c r="E61" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5">
+        <v>2</v>
+      </c>
+      <c r="H61" s="5">
+        <v>0</v>
+      </c>
+      <c r="I61" s="5">
+        <v>11</v>
+      </c>
+      <c r="J61" s="5">
+        <v>10</v>
+      </c>
+      <c r="K61" s="5">
+        <v>8</v>
+      </c>
+      <c r="L61" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N61" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62" s="5">
+        <v>313051</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" s="5">
+        <v>11</v>
+      </c>
+      <c r="E62" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5">
+        <v>1</v>
+      </c>
+      <c r="H62" s="5">
+        <v>0</v>
+      </c>
+      <c r="I62" s="5">
+        <v>11</v>
+      </c>
+      <c r="J62" s="5">
+        <v>10</v>
+      </c>
+      <c r="K62" s="5">
+        <v>8</v>
+      </c>
+      <c r="L62" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N62" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="5">
+        <v>313060</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="5">
+        <v>11</v>
+      </c>
+      <c r="E63" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5">
+        <v>1</v>
+      </c>
+      <c r="H63" s="5">
+        <v>0</v>
+      </c>
+      <c r="I63" s="5">
+        <v>11</v>
+      </c>
+      <c r="J63" s="5">
+        <v>15</v>
+      </c>
+      <c r="K63" s="5">
+        <v>8</v>
+      </c>
+      <c r="L63" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N63" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B64" s="5">
+        <v>313070</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" s="5">
+        <v>11</v>
+      </c>
+      <c r="E64" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" s="5">
+        <v>10</v>
+      </c>
+      <c r="G64" s="5">
+        <v>7</v>
+      </c>
+      <c r="H64" s="5">
+        <v>1</v>
+      </c>
+      <c r="I64" s="5">
+        <v>11</v>
+      </c>
+      <c r="J64" s="5">
+        <v>25</v>
+      </c>
+      <c r="K64" s="5">
+        <v>14</v>
+      </c>
+      <c r="L64" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N64" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" s="5">
+        <v>313080</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="5">
+        <v>11</v>
+      </c>
+      <c r="E65" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5">
+        <v>1</v>
+      </c>
+      <c r="H65" s="5">
+        <v>0</v>
+      </c>
+      <c r="I65" s="5">
+        <v>11</v>
+      </c>
+      <c r="J65" s="5">
+        <v>10</v>
+      </c>
+      <c r="K65" s="5">
+        <v>18</v>
+      </c>
+      <c r="L65" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N65" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" s="5">
+        <v>313090</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="5">
+        <v>11</v>
+      </c>
+      <c r="E66" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5">
+        <v>2</v>
+      </c>
+      <c r="H66" s="5">
+        <v>1</v>
+      </c>
+      <c r="I66" s="5">
+        <v>11</v>
+      </c>
+      <c r="J66" s="5">
+        <v>15</v>
+      </c>
+      <c r="K66" s="5">
+        <v>14</v>
+      </c>
+      <c r="L66" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N66" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" s="5">
+        <v>313091</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="5">
+        <v>11</v>
+      </c>
+      <c r="E67" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0</v>
+      </c>
+      <c r="G67" s="5">
+        <v>1</v>
+      </c>
+      <c r="H67" s="5">
+        <v>1</v>
+      </c>
+      <c r="I67" s="5">
+        <v>11</v>
+      </c>
+      <c r="J67" s="5">
+        <v>15</v>
+      </c>
+      <c r="K67" s="5">
+        <v>14</v>
+      </c>
+      <c r="L67" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N67" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="5">
+        <v>313100</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" s="5">
+        <v>11</v>
+      </c>
+      <c r="E68" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5">
+        <v>5</v>
+      </c>
+      <c r="H68" s="5">
+        <v>1</v>
+      </c>
+      <c r="I68" s="5">
+        <v>11</v>
+      </c>
+      <c r="J68" s="5">
+        <v>15</v>
+      </c>
+      <c r="K68" s="5">
+        <v>16</v>
+      </c>
+      <c r="L68" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N68" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" s="5">
+        <v>313101</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="5">
+        <v>11</v>
+      </c>
+      <c r="E69" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5">
+        <v>1</v>
+      </c>
+      <c r="H69" s="5">
+        <v>1</v>
+      </c>
+      <c r="I69" s="5">
+        <v>11</v>
+      </c>
+      <c r="J69" s="5">
+        <v>15</v>
+      </c>
+      <c r="K69" s="5">
+        <v>16</v>
+      </c>
+      <c r="L69" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N69" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" s="5">
+        <v>313110</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="D70" s="5">
+        <v>11</v>
+      </c>
+      <c r="E70" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5">
+        <v>2</v>
+      </c>
+      <c r="H70" s="5">
+        <v>0</v>
+      </c>
+      <c r="I70" s="5">
+        <v>11</v>
+      </c>
+      <c r="J70" s="5">
+        <v>20</v>
+      </c>
+      <c r="K70" s="5">
+        <v>16</v>
+      </c>
+      <c r="L70" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N70" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" s="5">
+        <v>313111</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" s="5">
+        <v>11</v>
+      </c>
+      <c r="E71" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" s="5">
+        <v>0</v>
+      </c>
+      <c r="G71" s="5">
+        <v>1</v>
+      </c>
+      <c r="H71" s="5">
+        <v>0</v>
+      </c>
+      <c r="I71" s="5">
+        <v>11</v>
+      </c>
+      <c r="J71" s="5">
+        <v>20</v>
+      </c>
+      <c r="K71" s="5">
+        <v>16</v>
+      </c>
+      <c r="L71" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N71" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" s="5">
+        <v>313120</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" s="5">
+        <v>11</v>
+      </c>
+      <c r="E72" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" s="5">
+        <v>0</v>
+      </c>
+      <c r="G72" s="5">
+        <v>1</v>
+      </c>
+      <c r="H72" s="5">
+        <v>1</v>
+      </c>
+      <c r="I72" s="5">
+        <v>11</v>
+      </c>
+      <c r="J72" s="5">
+        <v>30</v>
+      </c>
+      <c r="K72" s="5">
+        <v>24</v>
+      </c>
+      <c r="L72" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N72" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="B73" s="5">
+        <v>313130</v>
+      </c>
+      <c r="C73" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D73" s="5">
+        <v>12</v>
+      </c>
+      <c r="E73" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" s="5">
+        <v>0</v>
+      </c>
+      <c r="G73" s="5">
+        <v>1</v>
+      </c>
+      <c r="H73" s="5">
+        <v>1</v>
+      </c>
+      <c r="I73" s="5">
+        <v>12</v>
+      </c>
+      <c r="J73" s="5">
+        <v>20</v>
+      </c>
+      <c r="K73" s="5">
+        <v>12</v>
+      </c>
+      <c r="L73" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N73" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74" s="5">
+        <v>313140</v>
+      </c>
+      <c r="C74" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="D74" s="5">
+        <v>12</v>
+      </c>
+      <c r="E74" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" s="5">
+        <v>0</v>
+      </c>
+      <c r="G74" s="5">
+        <v>1</v>
+      </c>
+      <c r="H74" s="5">
+        <v>0</v>
+      </c>
+      <c r="I74" s="5">
+        <v>12</v>
+      </c>
+      <c r="J74" s="5">
+        <v>10</v>
+      </c>
+      <c r="K74" s="5">
+        <v>8</v>
+      </c>
+      <c r="L74" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N74" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="5">
+        <v>313150</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D75" s="5">
+        <v>12</v>
+      </c>
+      <c r="E75" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0</v>
+      </c>
+      <c r="G75" s="5">
+        <v>1</v>
+      </c>
+      <c r="H75" s="5">
+        <v>1</v>
+      </c>
+      <c r="I75" s="5">
+        <v>12</v>
+      </c>
+      <c r="J75" s="5">
+        <v>30</v>
+      </c>
+      <c r="K75" s="5">
+        <v>14</v>
+      </c>
+      <c r="L75" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N75" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" s="5">
+        <v>313160</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" s="5">
+        <v>12</v>
+      </c>
+      <c r="E76" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0</v>
+      </c>
+      <c r="G76" s="5">
+        <v>1</v>
+      </c>
+      <c r="H76" s="5">
+        <v>1</v>
+      </c>
+      <c r="I76" s="5">
+        <v>12</v>
+      </c>
+      <c r="J76" s="5">
+        <v>35</v>
+      </c>
+      <c r="K76" s="5">
+        <v>20</v>
+      </c>
+      <c r="L76" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N76" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" s="5">
+        <v>313170</v>
+      </c>
+      <c r="C77" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" s="5">
+        <v>12</v>
+      </c>
+      <c r="E77" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0</v>
+      </c>
+      <c r="G77" s="5">
+        <v>1</v>
+      </c>
+      <c r="H77" s="5">
+        <v>1</v>
+      </c>
+      <c r="I77" s="5">
+        <v>12</v>
+      </c>
+      <c r="J77" s="5">
+        <v>30</v>
+      </c>
+      <c r="K77" s="5">
+        <v>18</v>
+      </c>
+      <c r="L77" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N77" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="5">
+        <v>313180</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78" s="5">
+        <v>12</v>
+      </c>
+      <c r="E78" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0</v>
+      </c>
+      <c r="G78" s="5">
+        <v>1</v>
+      </c>
+      <c r="H78" s="5">
+        <v>1</v>
+      </c>
+      <c r="I78" s="5">
+        <v>12</v>
+      </c>
+      <c r="J78" s="5">
+        <v>40</v>
+      </c>
+      <c r="K78" s="5">
+        <v>18</v>
+      </c>
+      <c r="L78" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N78" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="B79" s="5">
+        <v>313181</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" s="5">
+        <v>12</v>
+      </c>
+      <c r="E79" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0</v>
+      </c>
+      <c r="G79" s="5">
+        <v>5</v>
+      </c>
+      <c r="H79" s="5">
+        <v>1</v>
+      </c>
+      <c r="I79" s="5">
+        <v>12</v>
+      </c>
+      <c r="J79" s="5">
+        <v>40</v>
+      </c>
+      <c r="K79" s="5">
+        <v>18</v>
+      </c>
+      <c r="L79" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N79" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" s="5">
+        <v>313190</v>
+      </c>
+      <c r="C80" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="D80" s="5">
+        <v>12</v>
+      </c>
+      <c r="E80" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0</v>
+      </c>
+      <c r="G80" s="5">
+        <v>1</v>
+      </c>
+      <c r="H80" s="5">
+        <v>1</v>
+      </c>
+      <c r="I80" s="5">
+        <v>12</v>
+      </c>
+      <c r="J80" s="5">
+        <v>45</v>
+      </c>
+      <c r="K80" s="5">
+        <v>24</v>
+      </c>
+      <c r="L80" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N80" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="B81" s="5">
+        <v>313191</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" s="5">
+        <v>12</v>
+      </c>
+      <c r="E81" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0</v>
+      </c>
+      <c r="G81" s="5">
+        <v>2</v>
+      </c>
+      <c r="H81" s="5">
+        <v>1</v>
+      </c>
+      <c r="I81" s="5">
+        <v>12</v>
+      </c>
+      <c r="J81" s="5">
+        <v>45</v>
+      </c>
+      <c r="K81" s="5">
+        <v>24</v>
+      </c>
+      <c r="L81" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N81" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="5">
+        <v>313200</v>
+      </c>
+      <c r="C82" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="D82" s="5">
+        <v>12</v>
+      </c>
+      <c r="E82" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0</v>
+      </c>
+      <c r="G82" s="5">
+        <v>1</v>
+      </c>
+      <c r="H82" s="5">
+        <v>0</v>
+      </c>
+      <c r="I82" s="5">
+        <v>12</v>
+      </c>
+      <c r="J82" s="5">
+        <v>40</v>
+      </c>
+      <c r="K82" s="5">
+        <v>24</v>
+      </c>
+      <c r="L82" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N82" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" s="5">
+        <v>313210</v>
+      </c>
+      <c r="C83" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D83" s="5">
+        <v>12</v>
+      </c>
+      <c r="E83" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0</v>
+      </c>
+      <c r="G83" s="5">
+        <v>1</v>
+      </c>
+      <c r="H83" s="5">
+        <v>1</v>
+      </c>
+      <c r="I83" s="5">
+        <v>12</v>
+      </c>
+      <c r="J83" s="5">
+        <v>50</v>
+      </c>
+      <c r="K83" s="5">
+        <v>40</v>
+      </c>
+      <c r="L83" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N83" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="B84" s="5">
+        <v>313211</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D84" s="5">
+        <v>12</v>
+      </c>
+      <c r="E84" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0</v>
+      </c>
+      <c r="G84" s="5">
+        <v>6</v>
+      </c>
+      <c r="H84" s="5">
+        <v>1</v>
+      </c>
+      <c r="I84" s="5">
+        <v>12</v>
+      </c>
+      <c r="J84" s="5">
+        <v>50</v>
+      </c>
+      <c r="K84" s="5">
+        <v>40</v>
+      </c>
+      <c r="L84" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N84" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="B85" s="5">
+        <v>313220</v>
+      </c>
+      <c r="C85" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="D85" s="5">
+        <v>4</v>
+      </c>
+      <c r="E85" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" s="5">
+        <v>0</v>
+      </c>
+      <c r="G85" s="5">
+        <v>1</v>
+      </c>
+      <c r="H85" s="5">
+        <v>4</v>
+      </c>
+      <c r="I85" s="5">
+        <v>0</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K85" s="5">
+        <v>300</v>
+      </c>
+      <c r="L85" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N85" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" s="5">
+        <v>313230</v>
+      </c>
+      <c r="C86" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D86" s="5">
+        <v>4</v>
+      </c>
+      <c r="E86" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" s="5">
+        <v>0</v>
+      </c>
+      <c r="G86" s="5">
+        <v>1</v>
+      </c>
+      <c r="H86" s="5">
+        <v>4</v>
+      </c>
+      <c r="I86" s="5">
+        <v>0</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K86" s="5">
+        <v>300</v>
+      </c>
+      <c r="L86" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N86" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="B87" s="5">
+        <v>313240</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="D87" s="5">
+        <v>3</v>
+      </c>
+      <c r="E87" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" s="5">
+        <v>0</v>
+      </c>
+      <c r="G87" s="5">
+        <v>1</v>
+      </c>
+      <c r="H87" s="5">
+        <v>2</v>
+      </c>
+      <c r="I87" s="5">
+        <v>10</v>
+      </c>
+      <c r="J87" s="5">
+        <v>100</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L87" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N87" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="B88" s="5">
+        <v>313250</v>
+      </c>
+      <c r="C88" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88" s="5">
+        <v>3</v>
+      </c>
+      <c r="E88" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" s="5">
+        <v>0</v>
+      </c>
+      <c r="G88" s="5">
+        <v>1</v>
+      </c>
+      <c r="H88" s="5">
+        <v>2</v>
+      </c>
+      <c r="I88" s="5">
+        <v>10</v>
+      </c>
+      <c r="J88" s="5">
+        <v>100</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L88" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N88" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" s="5">
+        <v>313260</v>
+      </c>
+      <c r="C89" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D89" s="5">
+        <v>12</v>
+      </c>
+      <c r="E89" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89" s="5">
+        <v>14</v>
+      </c>
+      <c r="G89" s="5">
+        <v>6</v>
+      </c>
+      <c r="H89" s="5">
+        <v>2</v>
+      </c>
+      <c r="I89" s="5">
+        <v>0</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="5">
+        <v>40</v>
+      </c>
+      <c r="L89" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N89" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="B90" s="5">
+        <v>313270</v>
+      </c>
+      <c r="C90" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="D90" s="5">
+        <v>0</v>
+      </c>
+      <c r="E90" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" s="5">
+        <v>0</v>
+      </c>
+      <c r="G90" s="5">
+        <v>2</v>
+      </c>
+      <c r="H90" s="5">
+        <v>0</v>
+      </c>
+      <c r="I90" s="5">
+        <v>0</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L90" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N90" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" s="5">
+        <v>313280</v>
+      </c>
+      <c r="C91" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="D91" s="5">
+        <v>3</v>
+      </c>
+      <c r="E91" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" s="5">
+        <v>0</v>
+      </c>
+      <c r="G91" s="5">
+        <v>1</v>
+      </c>
+      <c r="H91" s="5">
+        <v>2</v>
+      </c>
+      <c r="I91" s="5">
+        <v>0</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="5">
+        <v>10</v>
+      </c>
+      <c r="L91" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" s="5">
+        <v>313290</v>
+      </c>
+      <c r="C92" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="D92" s="5">
+        <v>11</v>
+      </c>
+      <c r="E92" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" s="5">
+        <v>0</v>
+      </c>
+      <c r="G92" s="5">
+        <v>1</v>
+      </c>
+      <c r="H92" s="5">
+        <v>1</v>
+      </c>
+      <c r="I92" s="5">
+        <v>11</v>
+      </c>
+      <c r="J92" s="5">
+        <v>40</v>
+      </c>
+      <c r="K92" s="5">
+        <v>64</v>
+      </c>
+      <c r="L92" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N92" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" s="5">
+        <v>313300</v>
+      </c>
+      <c r="C93" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D93" s="5">
+        <v>12</v>
+      </c>
+      <c r="E93" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" s="5">
+        <v>0</v>
+      </c>
+      <c r="G93" s="5">
+        <v>1</v>
+      </c>
+      <c r="H93" s="5">
+        <v>1</v>
+      </c>
+      <c r="I93" s="5">
+        <v>12</v>
+      </c>
+      <c r="J93" s="5">
+        <v>50</v>
+      </c>
+      <c r="K93" s="5">
+        <v>72</v>
+      </c>
+      <c r="L93" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N93" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" s="5">
+        <v>313310</v>
+      </c>
+      <c r="C94" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="D94" s="5">
+        <v>5</v>
+      </c>
+      <c r="E94" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" s="5">
+        <v>0</v>
+      </c>
+      <c r="G94" s="5">
+        <v>1</v>
+      </c>
+      <c r="H94" s="5">
+        <v>4</v>
+      </c>
+      <c r="I94" s="5">
+        <v>20</v>
+      </c>
+      <c r="J94" s="5">
+        <v>10000</v>
+      </c>
+      <c r="K94" s="5">
+        <v>300</v>
+      </c>
+      <c r="L94" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N94" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" s="5">
+        <v>313320</v>
+      </c>
+      <c r="C95" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="D95" s="5">
+        <v>5</v>
+      </c>
+      <c r="E95" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" s="5">
+        <v>0</v>
+      </c>
+      <c r="G95" s="5">
+        <v>1</v>
+      </c>
+      <c r="H95" s="5">
+        <v>4</v>
+      </c>
+      <c r="I95" s="5">
+        <v>20</v>
+      </c>
+      <c r="J95" s="5">
+        <v>10000</v>
+      </c>
+      <c r="K95" s="5">
+        <v>300</v>
+      </c>
+      <c r="L95" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N95" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="5">
+        <v>313330</v>
+      </c>
+      <c r="C96" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="D96" s="5">
+        <v>12</v>
+      </c>
+      <c r="E96" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" s="5">
+        <v>0</v>
+      </c>
+      <c r="G96" s="5">
+        <v>6</v>
+      </c>
+      <c r="H96" s="5">
+        <v>2</v>
+      </c>
+      <c r="I96" s="5">
+        <v>0</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K96" s="5">
+        <v>0</v>
+      </c>
+      <c r="L96" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N96" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="51"/>
+      <c r="B97" s="50"/>
+      <c r="C97" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
